--- a/parameters/demand_parameters.xlsx
+++ b/parameters/demand_parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aghil\Documents\MoFuSS_FAO_localhost\slv_curso_ics100m\LULCC\DownloadedDatasets\SourceDataEl Salvador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D873763-2B16-459B-9FAE-B5ACB40CDF1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE48C02A-3AC5-4E83-9F09-42BDEAC6F7FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{119154BE-EFD1-4249-B324-41D845CFCB02}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{119154BE-EFD1-4249-B324-41D845CFCB02}"/>
   </bookViews>
   <sheets>
     <sheet name="share" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="24">
   <si>
     <t>area</t>
   </si>
@@ -55,9 +55,6 @@
     <t>Rural</t>
   </si>
   <si>
-    <t>Biomass</t>
-  </si>
-  <si>
     <t>Urban</t>
   </si>
   <si>
@@ -104,6 +101,15 @@
   </si>
   <si>
     <t>It will be converted to wood equivalent in 2b_scen_genB_v1.R and back in 2c_demand_tables_v2.R</t>
+  </si>
+  <si>
+    <t>kg leña seca /hab / dia</t>
+  </si>
+  <si>
+    <t>Urbano</t>
+  </si>
+  <si>
+    <t>Fuelwood</t>
   </si>
 </sst>
 </file>
@@ -269,7 +275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -290,6 +296,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -626,8 +635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04FF7A2F-F16F-4C08-832C-E17FC87EC28B}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -649,13 +658,13 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -663,13 +672,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C2" s="7">
-        <v>1990</v>
+        <v>1992</v>
       </c>
       <c r="D2" s="8">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
       <c r="E2" s="7">
         <v>0.83971044467425004</v>
@@ -681,16 +690,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C3" s="2">
-        <v>1990</v>
+        <v>1992</v>
       </c>
       <c r="D3" s="3">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="E3" s="2">
         <v>0.32521186440678002</v>
@@ -705,13 +714,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="4">
-        <v>1990</v>
+        <v>1992</v>
       </c>
       <c r="D4" s="5">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E4" s="4">
         <v>5.1706308169596699E-3</v>
@@ -723,16 +732,16 @@
     </row>
     <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>7</v>
-      </c>
       <c r="C5" s="15">
-        <v>1990</v>
+        <v>1992</v>
       </c>
       <c r="D5" s="16">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="E5" s="15">
         <v>1.0593220338983101E-3</v>
@@ -747,13 +756,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C6" s="7">
-        <v>2005</v>
+        <v>2012</v>
       </c>
       <c r="D6" s="8">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="8">
@@ -763,16 +772,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C7" s="2">
-        <v>2005</v>
+        <v>2012</v>
       </c>
       <c r="D7" s="3">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="3">
@@ -785,13 +794,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="4">
-        <v>2005</v>
+        <v>2012</v>
       </c>
       <c r="D8" s="5">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="5">
@@ -801,16 +810,16 @@
     </row>
     <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>7</v>
-      </c>
       <c r="C9" s="15">
-        <v>2005</v>
+        <v>2012</v>
       </c>
       <c r="D9" s="16">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="16">
@@ -823,14 +832,12 @@
         <v>4</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C10" s="7">
         <v>2020</v>
       </c>
-      <c r="D10" s="8">
-        <v>0.5</v>
-      </c>
+      <c r="D10" s="8"/>
       <c r="E10" s="7"/>
       <c r="F10" s="8">
         <v>0.5</v>
@@ -839,17 +846,15 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2">
         <v>2020</v>
       </c>
-      <c r="D11" s="3">
-        <v>0.3</v>
-      </c>
+      <c r="D11" s="3"/>
       <c r="E11" s="2"/>
       <c r="F11" s="3">
         <v>0.3</v>
@@ -861,14 +866,12 @@
         <v>4</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" s="4">
         <v>2020</v>
       </c>
-      <c r="D12" s="5">
-        <v>0.1</v>
-      </c>
+      <c r="D12" s="5"/>
       <c r="E12" s="4"/>
       <c r="F12" s="5">
         <v>0.1</v>
@@ -877,17 +880,15 @@
     </row>
     <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="15" t="s">
         <v>6</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>7</v>
       </c>
       <c r="C13" s="15">
         <v>2020</v>
       </c>
-      <c r="D13" s="16">
-        <v>0.5</v>
-      </c>
+      <c r="D13" s="16"/>
       <c r="E13" s="15"/>
       <c r="F13" s="16">
         <v>0.5</v>
@@ -899,7 +900,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C14" s="7">
         <v>2050</v>
@@ -917,10 +918,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C15" s="2">
         <v>2050</v>
@@ -941,7 +942,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16" s="4">
         <v>2050</v>
@@ -959,10 +960,10 @@
     </row>
     <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="15" t="s">
         <v>6</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>7</v>
       </c>
       <c r="C17" s="15">
         <v>2050</v>
@@ -985,100 +986,122 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DD4DB57-2506-44CA-9B52-7C8F5D630F8D}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="12.44140625" customWidth="1"/>
     <col min="3" max="3" width="37.77734375" customWidth="1"/>
-    <col min="4" max="4" width="82.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="50.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="18">
         <v>3.0099999999999998E-2</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>2.8799999999999999E-2</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>0.25700000000000001</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B5">
-        <v>1.1000000000000001</v>
+        <v>0.72270000000000001</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <f>1.53/1000*365</f>
+        <v>0.55845</v>
+      </c>
+      <c r="F5">
+        <f>1.98/1000*365</f>
+        <v>0.72270000000000001</v>
+      </c>
+      <c r="G5">
+        <f>3.15/1000*365</f>
+        <v>1.14975</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>0.18</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="19">
         <v>0.1472</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1090,7 +1113,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2CA9E36-04BB-465E-8149-05BB192D5696}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1098,7 +1121,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">

--- a/parameters/demand_parameters.xlsx
+++ b/parameters/demand_parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aghil\Documents\MoFuSS_FAO_localhost\slv_curso_ics100m\LULCC\DownloadedDatasets\SourceDataEl Salvador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE48C02A-3AC5-4E83-9F09-42BDEAC6F7FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29FD60C8-AF98-4963-81D3-C24FB4BC202C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{119154BE-EFD1-4249-B324-41D845CFCB02}"/>
   </bookViews>
@@ -636,7 +636,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -677,8 +677,8 @@
       <c r="C2" s="7">
         <v>1992</v>
       </c>
-      <c r="D2" s="8">
-        <v>0.1</v>
+      <c r="D2" s="7">
+        <v>0.83971044467425004</v>
       </c>
       <c r="E2" s="7">
         <v>0.83971044467425004</v>
@@ -698,8 +698,8 @@
       <c r="C3" s="2">
         <v>1992</v>
       </c>
-      <c r="D3" s="3">
-        <v>0.1</v>
+      <c r="D3" s="2">
+        <v>0.32521186440678002</v>
       </c>
       <c r="E3" s="2">
         <v>0.32521186440678002</v>
@@ -719,8 +719,8 @@
       <c r="C4" s="4">
         <v>1992</v>
       </c>
-      <c r="D4" s="5">
-        <v>0</v>
+      <c r="D4" s="4">
+        <v>5.1706308169596699E-3</v>
       </c>
       <c r="E4" s="4">
         <v>5.1706308169596699E-3</v>
@@ -740,8 +740,8 @@
       <c r="C5" s="15">
         <v>1992</v>
       </c>
-      <c r="D5" s="16">
-        <v>0</v>
+      <c r="D5" s="15">
+        <v>1.0593220338983101E-3</v>
       </c>
       <c r="E5" s="15">
         <v>1.0593220338983101E-3</v>
@@ -761,9 +761,7 @@
       <c r="C6" s="7">
         <v>2012</v>
       </c>
-      <c r="D6" s="8">
-        <v>0.4</v>
-      </c>
+      <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="8">
         <v>0.8</v>
@@ -780,9 +778,7 @@
       <c r="C7" s="2">
         <v>2012</v>
       </c>
-      <c r="D7" s="3">
-        <v>0.4</v>
-      </c>
+      <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="3">
         <v>0.3</v>
@@ -799,9 +795,7 @@
       <c r="C8" s="4">
         <v>2012</v>
       </c>
-      <c r="D8" s="5">
-        <v>0</v>
-      </c>
+      <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="5">
         <v>0.1</v>
@@ -818,9 +812,7 @@
       <c r="C9" s="15">
         <v>2012</v>
       </c>
-      <c r="D9" s="16">
-        <v>0</v>
-      </c>
+      <c r="D9" s="15"/>
       <c r="E9" s="15"/>
       <c r="F9" s="16">
         <v>0.6</v>
@@ -837,7 +829,7 @@
       <c r="C10" s="7">
         <v>2020</v>
       </c>
-      <c r="D10" s="8"/>
+      <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="8">
         <v>0.5</v>
@@ -854,7 +846,7 @@
       <c r="C11" s="2">
         <v>2020</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="3">
         <v>0.3</v>
@@ -871,7 +863,7 @@
       <c r="C12" s="4">
         <v>2020</v>
       </c>
-      <c r="D12" s="5"/>
+      <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="5">
         <v>0.1</v>
@@ -888,7 +880,7 @@
       <c r="C13" s="15">
         <v>2020</v>
       </c>
-      <c r="D13" s="16"/>
+      <c r="D13" s="15"/>
       <c r="E13" s="15"/>
       <c r="F13" s="16">
         <v>0.5</v>
@@ -905,8 +897,8 @@
       <c r="C14" s="7">
         <v>2050</v>
       </c>
-      <c r="D14" s="8">
-        <v>0.2</v>
+      <c r="D14" s="7">
+        <v>0.9</v>
       </c>
       <c r="E14" s="7">
         <v>0</v>
@@ -926,8 +918,8 @@
       <c r="C15" s="2">
         <v>2050</v>
       </c>
-      <c r="D15" s="3">
-        <v>0.3</v>
+      <c r="D15" s="2">
+        <v>0.05</v>
       </c>
       <c r="E15" s="2">
         <v>4.4101433296582096E-3</v>
@@ -947,7 +939,7 @@
       <c r="C16" s="4">
         <v>2050</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <v>0.05</v>
       </c>
       <c r="E16" s="4">
@@ -968,8 +960,8 @@
       <c r="C17" s="15">
         <v>2050</v>
       </c>
-      <c r="D17" s="16">
-        <v>0.4</v>
+      <c r="D17" s="15">
+        <v>0.9</v>
       </c>
       <c r="E17" s="15">
         <v>0</v>
@@ -989,14 +981,14 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="12.44140625" customWidth="1"/>
     <col min="3" max="3" width="37.77734375" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="4" max="4" width="35.88671875" customWidth="1"/>
     <col min="5" max="5" width="50.109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1079,7 +1071,7 @@
         <v>1.14975</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>

--- a/parameters/demand_parameters.xlsx
+++ b/parameters/demand_parameters.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aghil\Documents\MoFuSS_FAO_localhost\slv_curso_ics100m\LULCC\DownloadedDatasets\SourceDataEl Salvador\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aghil\Documents\MoFuSS_FAO_localhost\slv_bau_100m_ajustado\LULCC\DownloadedDatasets\SourceDataEl Salvador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29FD60C8-AF98-4963-81D3-C24FB4BC202C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B14EA866-89E7-4693-852F-B3DE1C9357D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{119154BE-EFD1-4249-B324-41D845CFCB02}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{119154BE-EFD1-4249-B324-41D845CFCB02}"/>
   </bookViews>
   <sheets>
     <sheet name="share" sheetId="1" r:id="rId1"/>
     <sheet name="intensity" sheetId="2" r:id="rId2"/>
-    <sheet name="efchratio" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="30">
   <si>
     <t>area</t>
   </si>
@@ -67,9 +66,6 @@
     <t>DGEHM 1 anchors</t>
   </si>
   <si>
-    <t>DGEHM 2 anchors</t>
-  </si>
-  <si>
     <t>Coal</t>
   </si>
   <si>
@@ -88,28 +84,49 @@
     <t>ton/cap-yr</t>
   </si>
   <si>
+    <t>per_capita_consumption</t>
+  </si>
+  <si>
+    <t>observations</t>
+  </si>
+  <si>
+    <t>It will be converted to wood equivalent in 2b_scen_genB_v1.R and back in 2c_demand_tables_v2.R</t>
+  </si>
+  <si>
+    <t>Fuelwood</t>
+  </si>
+  <si>
+    <t>calorific_values</t>
+  </si>
+  <si>
+    <t>MJ/kg</t>
+  </si>
+  <si>
+    <t>MJ/kWh</t>
+  </si>
+  <si>
+    <t>calorific_values_units</t>
+  </si>
+  <si>
+    <t>stove_efficiencies_perc</t>
+  </si>
+  <si>
+    <t>new_cons_pc</t>
+  </si>
+  <si>
+    <t>refs</t>
+  </si>
+  <si>
+    <t>Floess et al</t>
+  </si>
+  <si>
+    <t>UNFCCC default</t>
+  </si>
+  <si>
+    <t>Old default</t>
+  </si>
+  <si>
     <t>MWh/cap-yr</t>
-  </si>
-  <si>
-    <t>per_capita_consumption</t>
-  </si>
-  <si>
-    <t>efchratio</t>
-  </si>
-  <si>
-    <t>observations</t>
-  </si>
-  <si>
-    <t>It will be converted to wood equivalent in 2b_scen_genB_v1.R and back in 2c_demand_tables_v2.R</t>
-  </si>
-  <si>
-    <t>kg leña seca /hab / dia</t>
-  </si>
-  <si>
-    <t>Urbano</t>
-  </si>
-  <si>
-    <t>Fuelwood</t>
   </si>
 </sst>
 </file>
@@ -165,7 +182,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -194,30 +211,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -244,26 +241,6 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top/>
       <bottom style="thin">
@@ -275,7 +252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -285,18 +262,21 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -317,7 +297,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -633,18 +613,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04FF7A2F-F16F-4C08-832C-E17FC87EC28B}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="7" width="15.33203125" customWidth="1"/>
+    <col min="4" max="6" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -663,130 +643,125 @@
       <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C2" s="7">
-        <v>1992</v>
-      </c>
-      <c r="D2" s="7">
+        <v>1990</v>
+      </c>
+      <c r="D2" s="8">
         <v>0.83971044467425004</v>
       </c>
       <c r="E2" s="7">
         <v>0.83971044467425004</v>
       </c>
       <c r="F2" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+        <v>0.83971044467425004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C3" s="2">
-        <v>1992</v>
-      </c>
-      <c r="D3" s="2">
+        <v>1990</v>
+      </c>
+      <c r="D3" s="3">
         <v>0.32521186440678002</v>
       </c>
       <c r="E3" s="2">
         <v>0.32521186440678002</v>
       </c>
       <c r="F3" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="G3" s="11"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+        <v>0.32521186440678002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="4">
-        <v>1992</v>
-      </c>
-      <c r="D4" s="4">
+        <v>1990</v>
+      </c>
+      <c r="D4" s="5">
         <v>5.1706308169596699E-3</v>
       </c>
       <c r="E4" s="4">
         <v>5.1706308169596699E-3</v>
       </c>
       <c r="F4" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="G4" s="13"/>
-    </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="14" t="s">
+        <v>5.1706308169596699E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="15">
-        <v>1992</v>
-      </c>
-      <c r="D5" s="15">
+      <c r="C5" s="12">
+        <v>1990</v>
+      </c>
+      <c r="D5" s="13">
         <v>1.0593220338983101E-3</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="12">
         <v>1.0593220338983101E-3</v>
       </c>
-      <c r="F5" s="16">
-        <v>0.6</v>
-      </c>
-      <c r="G5" s="17"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F5" s="13">
+        <v>1.0593220338983101E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C6" s="7">
         <v>2012</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="8">
+        <v>0.67275000000000007</v>
+      </c>
       <c r="E6" s="7"/>
       <c r="F6" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+        <v>0.67275000000000007</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2">
         <v>2012</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="3">
+        <v>0.252</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+        <v>0.252</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -795,66 +770,62 @@
       <c r="C8" s="4">
         <v>2012</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="5">
+        <v>9.1000000000000004E-3</v>
+      </c>
       <c r="E8" s="4"/>
       <c r="F8" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="G8" s="13"/>
-    </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="14" t="s">
+        <v>9.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="12">
         <v>2012</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="16">
-        <v>0.6</v>
-      </c>
-      <c r="G9" s="17"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D9" s="13">
+        <v>6.2350000000000003E-2</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="13">
+        <v>6.2350000000000003E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C10" s="7">
         <v>2020</v>
       </c>
-      <c r="D10" s="7"/>
+      <c r="D10" s="8"/>
       <c r="E10" s="7"/>
-      <c r="F10" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C11" s="2">
         <v>2020</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="3"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="G11" s="11"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -863,74 +834,58 @@
       <c r="C12" s="4">
         <v>2020</v>
       </c>
-      <c r="D12" s="4"/>
+      <c r="D12" s="5"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="G12" s="13"/>
-    </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="14" t="s">
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="12">
         <v>2020</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="G13" s="17"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D13" s="13"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="13"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
         <v>2050</v>
       </c>
-      <c r="D14" s="7">
-        <v>0.9</v>
-      </c>
+      <c r="D14" s="8"/>
       <c r="E14" s="7">
         <v>0</v>
       </c>
-      <c r="F14" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="G14" s="9"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C15" s="2">
         <v>2050</v>
       </c>
-      <c r="D15" s="2">
-        <v>0.05</v>
-      </c>
+      <c r="D15" s="3"/>
       <c r="E15" s="2">
         <v>4.4101433296582096E-3</v>
       </c>
-      <c r="F15" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="G15" s="11"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -939,37 +894,27 @@
       <c r="C16" s="4">
         <v>2050</v>
       </c>
-      <c r="D16" s="4">
-        <v>0.05</v>
-      </c>
+      <c r="D16" s="5"/>
       <c r="E16" s="4">
         <v>0</v>
       </c>
-      <c r="F16" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="G16" s="13"/>
-    </row>
-    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="14" t="s">
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="12">
         <v>2050</v>
       </c>
-      <c r="D17" s="15">
-        <v>0.9</v>
-      </c>
-      <c r="E17" s="15">
+      <c r="D17" s="13"/>
+      <c r="E17" s="12">
         <v>0</v>
       </c>
-      <c r="F17" s="16">
-        <v>0.4</v>
-      </c>
-      <c r="G17" s="17"/>
+      <c r="F17" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -978,148 +923,218 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DD4DB57-2506-44CA-9B52-7C8F5D630F8D}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="12.44140625" customWidth="1"/>
-    <col min="3" max="3" width="37.77734375" customWidth="1"/>
-    <col min="4" max="4" width="35.88671875" customWidth="1"/>
-    <col min="5" max="5" width="50.109375" customWidth="1"/>
+    <col min="1" max="8" width="12.5546875" customWidth="1"/>
+    <col min="9" max="9" width="34.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="15">
+        <f ca="1">H2</f>
+        <v>0.13760514596734291</v>
+      </c>
+      <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="D2">
+        <v>43</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>0.47</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="15">
+        <f ca="1">B$5*(D$5*F$5)/(D2*F2)</f>
+        <v>0.13760514596734291</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="15">
+        <f t="shared" ref="B3:B7" ca="1" si="0">H3</f>
+        <v>0.12359999999999999</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <v>45</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3">
+        <v>0.5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="15">
+        <f ca="1">B$5*(D$5*F$5)/(D3*F3)</f>
+        <v>0.12359999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="15">
+        <f ca="1">H4/1000</f>
+        <v>1.1035714285714284</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4">
+        <v>3.6</v>
+      </c>
+      <c r="E4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="18">
-        <v>3.0099999999999998E-2</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3">
-        <v>2.8799999999999999E-2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4">
-        <v>0.25700000000000001</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F4">
+        <v>0.7</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="15">
+        <f ca="1">B$5*(D$5*F$5)/(D4*F4)*1000</f>
+        <v>1103.5714285714284</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5">
-        <v>0.72270000000000001</v>
+        <v>18</v>
+      </c>
+      <c r="B5" s="15">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.03</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5">
-        <f>1.53/1000*365</f>
-        <v>0.55845</v>
+        <v>14</v>
+      </c>
+      <c r="D5">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
       </c>
       <c r="F5">
-        <f>1.98/1000*365</f>
-        <v>0.72270000000000001</v>
-      </c>
-      <c r="G5">
-        <f>3.15/1000*365</f>
-        <v>1.14975</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="15">
+        <f t="shared" ref="H5:H7" ca="1" si="1">B$5*(D$5*F$5)/(D5*F5)</f>
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
-        <v>0.18</v>
+      <c r="B6" s="15">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.41199999999999998</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="19">
-        <v>0.1472</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2CA9E36-04BB-465E-8149-05BB192D5696}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>6</v>
-      </c>
+      <c r="F6">
+        <v>0.25</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="15">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="16">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.79005681818181805</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="14">
+        <v>22</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="14">
+        <v>0.16</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.79005681818181805</v>
+      </c>
+      <c r="I7" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
